--- a/data/scheduling_DNN/predict/0.5/result25.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result25.xlsx
@@ -570,10 +570,10 @@
         <v>0.9027421474456787</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.4203743636608124</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3046613335609436</v>
+        <v>0.2326786816120148</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9814579486846924</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.8800153732299805</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3616388142108917</v>
+        <v>0.01029059570282698</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8846569061279297</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.8760471940040588</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1373181939125061</v>
+        <v>7.412714330712333e-05</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8833370208740234</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.4051935076713562</v>
       </c>
       <c r="W5" t="n">
-        <v>0.05833360180258751</v>
+        <v>0.2286212146282196</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.9357039928436279</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.4896667897701263</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01577388867735863</v>
+        <v>0.1989491879940033</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8899688720703125</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.8684505820274353</v>
       </c>
       <c r="W7" t="n">
-        <v>0.140910804271698</v>
+        <v>0.0004630368202924728</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8830749988555908</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.5456488728523254</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2297933995723724</v>
+        <v>0.1138563901185989</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.9195389747619629</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.4187236428260803</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3234953582286835</v>
+        <v>0.2508159875869751</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.9149329662322998</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.8736268281936646</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1608398407697678</v>
+        <v>0.001706197042949498</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8703880310058594</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.3972924947738647</v>
       </c>
       <c r="W11" t="n">
-        <v>0.05245747789740562</v>
+        <v>0.2238193899393082</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8767008781433105</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.5013494491577148</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1834385842084885</v>
+        <v>0.1408886909484863</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8683860301971436</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.4906367063522339</v>
       </c>
       <c r="W13" t="n">
-        <v>0.007300469093024731</v>
+        <v>0.1426945477724075</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9082188606262207</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.870755672454834</v>
       </c>
       <c r="W14" t="n">
-        <v>0.3107297122478485</v>
+        <v>0.001403490430675447</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.8986029624938965</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.3972492814064026</v>
       </c>
       <c r="W15" t="n">
-        <v>0.3001063168048859</v>
+        <v>0.2513554990291595</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8633649349212646</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.5004745721817017</v>
       </c>
       <c r="W16" t="n">
-        <v>0.02722239121794701</v>
+        <v>0.1316894143819809</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8761470317840576</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.8731871247291565</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1402977854013443</v>
+        <v>8.761049684835598e-06</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.9122509956359863</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.4051457643508911</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1588010787963867</v>
+        <v>0.25715571641922</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8539340496063232</v>
       </c>
       <c r="V19" t="n">
-        <v>0.531548023223877</v>
+        <v>0.8726786375045776</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1039327532052994</v>
+        <v>0.0003513595729600638</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8919620513916016</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.8741878867149353</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1426094621419907</v>
+        <v>0.0003159209154546261</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8625869750976562</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.8669516444206238</v>
       </c>
       <c r="W21" t="n">
-        <v>0.09117530286312103</v>
+        <v>1.905033786897548e-05</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5806221961975098</v>
       </c>
       <c r="V22" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.4020819962024689</v>
       </c>
       <c r="W22" t="n">
-        <v>0.05298192426562309</v>
+        <v>0.03187660127878189</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5197858810424805</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.500454843044281</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01506312564015388</v>
+        <v>0.0003736890212167054</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5289130210876465</v>
       </c>
       <c r="V24" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.5011636018753052</v>
       </c>
       <c r="W24" t="n">
-        <v>0.1741082370281219</v>
+        <v>0.0007700302521698177</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5306081771850586</v>
       </c>
       <c r="V25" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.4916296899318695</v>
       </c>
       <c r="W25" t="n">
-        <v>0.07809946686029434</v>
+        <v>0.001519322511740029</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5252571105957031</v>
       </c>
       <c r="V26" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.4039484262466431</v>
       </c>
       <c r="W26" t="n">
-        <v>0.06698788702487946</v>
+        <v>0.01471579726785421</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5686180591583252</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.4913036823272705</v>
       </c>
       <c r="W27" t="n">
-        <v>0.02720190957188606</v>
+        <v>0.005977512802928686</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5155479907989502</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.4101830124855042</v>
       </c>
       <c r="W28" t="n">
-        <v>0.000114916154416278</v>
+        <v>0.01110177859663963</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5190689563751221</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.5090357661247253</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02832039631903172</v>
+        <v>0.0001006649035844021</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5338840484619141</v>
       </c>
       <c r="V30" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.868547260761261</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01464476343244314</v>
+        <v>0.1119994670152664</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5129270553588867</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.4994674324989319</v>
       </c>
       <c r="W31" t="n">
-        <v>7.633773202542216e-05</v>
+        <v>0.000181161449290812</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5250270366668701</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.8988572955131531</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01684914343059063</v>
+        <v>0.1397490650415421</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5148928165435791</v>
       </c>
       <c r="V33" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.3972858488559723</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0001145968999480829</v>
+        <v>0.01383139844983816</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5148279666900635</v>
       </c>
       <c r="V34" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.8701528906822205</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02077317982912064</v>
+        <v>0.1262557953596115</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5110929012298584</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.5004685521125793</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0211256816983223</v>
+        <v>0.0001128767908085138</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5108060836791992</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.5007396936416626</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0003643210220616311</v>
+        <v>0.0001013322107610293</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5143048763275146</v>
       </c>
       <c r="V37" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.5159009695053101</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01923772506415844</v>
+        <v>2.547513531681034e-06</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5657181739807129</v>
       </c>
       <c r="V38" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.5062674880027771</v>
       </c>
       <c r="W38" t="n">
-        <v>0.002630050294101238</v>
+        <v>0.003534384071826935</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5149080753326416</v>
       </c>
       <c r="V39" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.8581307530403137</v>
       </c>
       <c r="W39" t="n">
-        <v>0.02840657532215118</v>
+        <v>0.117801807820797</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5171618461608887</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.8740454316139221</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0004117767093703151</v>
+        <v>0.1273658871650696</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5240011215209961</v>
       </c>
       <c r="V41" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.4050491452217102</v>
       </c>
       <c r="W41" t="n">
-        <v>0.07621648907661438</v>
+        <v>0.01414957270026207</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4109699726104736</v>
       </c>
       <c r="V42" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.4986199736595154</v>
       </c>
       <c r="W42" t="n">
-        <v>0.2882621586322784</v>
+        <v>0.007682522758841515</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4109878540039062</v>
       </c>
       <c r="V43" t="n">
-        <v>0.541418194770813</v>
+        <v>0.4040409624576569</v>
       </c>
       <c r="W43" t="n">
-        <v>0.01701207458972931</v>
+        <v>4.825930227525532e-05</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.4053390026092529</v>
       </c>
       <c r="V44" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.3972916007041931</v>
       </c>
       <c r="W44" t="n">
-        <v>0.0768640860915184</v>
+        <v>6.476067937910557e-05</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.387192964553833</v>
       </c>
       <c r="V45" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.8685688376426697</v>
       </c>
       <c r="W45" t="n">
-        <v>0.09198027104139328</v>
+        <v>0.2317227274179459</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3862450122833252</v>
       </c>
       <c r="V46" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.8671572208404541</v>
       </c>
       <c r="W46" t="n">
-        <v>0.1847524642944336</v>
+        <v>0.2312765568494797</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.402562141418457</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.518481433391571</v>
       </c>
       <c r="W47" t="n">
-        <v>0.002104216022416949</v>
+        <v>0.01343728229403496</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3875730037689209</v>
       </c>
       <c r="V48" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.8800932168960571</v>
       </c>
       <c r="W48" t="n">
-        <v>0.001235109171830118</v>
+        <v>0.2425761669874191</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.389808177947998</v>
       </c>
       <c r="V49" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.4037705957889557</v>
       </c>
       <c r="W49" t="n">
-        <v>0.06363551318645477</v>
+        <v>0.0001949491124833003</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.4359250068664551</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.4956220090389252</v>
       </c>
       <c r="W50" t="n">
-        <v>0.001739315455779433</v>
+        <v>0.003563732141628861</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3880410194396973</v>
       </c>
       <c r="V51" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.8616544008255005</v>
       </c>
       <c r="W51" t="n">
-        <v>0.06483417749404907</v>
+        <v>0.2243096381425858</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3882191181182861</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.4192457795143127</v>
       </c>
       <c r="W52" t="n">
-        <v>0.0402236320078373</v>
+        <v>0.000962653721217066</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3862791061401367</v>
       </c>
       <c r="V53" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.5157181024551392</v>
       </c>
       <c r="W53" t="n">
-        <v>0.001260454533621669</v>
+        <v>0.01675445400178432</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3853950500488281</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.3976163864135742</v>
       </c>
       <c r="W54" t="n">
-        <v>0.004260224290192127</v>
+        <v>0.0001493610616307706</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3886079788208008</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.5083683729171753</v>
       </c>
       <c r="W55" t="n">
-        <v>0.0002261821791762486</v>
+        <v>0.01434255205094814</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.382084846496582</v>
       </c>
       <c r="V56" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.4203469753265381</v>
       </c>
       <c r="W56" t="n">
-        <v>0.07821577787399292</v>
+        <v>0.00146399054210633</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3863520622253418</v>
       </c>
       <c r="V57" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.3993536829948425</v>
       </c>
       <c r="W57" t="n">
-        <v>0.08775416761636734</v>
+        <v>0.0001690421486273408</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3842310905456543</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.5159713625907898</v>
       </c>
       <c r="W58" t="n">
-        <v>0.02469924278557301</v>
+        <v>0.01735549978911877</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3883399963378906</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.4953991174697876</v>
       </c>
       <c r="W59" t="n">
-        <v>0.007963652722537518</v>
+        <v>0.01146165560930967</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3877530097961426</v>
       </c>
       <c r="V60" t="n">
-        <v>0.946087121963501</v>
+        <v>0.4037902057170868</v>
       </c>
       <c r="W60" t="n">
-        <v>0.3117369711399078</v>
+        <v>0.0002571916556917131</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3847990036010742</v>
       </c>
       <c r="V61" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.4994606077671051</v>
       </c>
       <c r="W61" t="n">
-        <v>0.001190523733384907</v>
+        <v>0.01314728334546089</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.9515869617462158</v>
       </c>
       <c r="V62" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.3972779512405396</v>
       </c>
       <c r="W62" t="n">
-        <v>8.299162436742336e-05</v>
+        <v>0.3072584867477417</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8605039119720459</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.8915088772773743</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1081739440560341</v>
+        <v>0.0009613079018890858</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8655259609222412</v>
       </c>
       <c r="V64" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.5173940658569336</v>
       </c>
       <c r="W64" t="n">
-        <v>0.04375851526856422</v>
+        <v>0.1211958155035973</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8683171272277832</v>
       </c>
       <c r="V65" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.8670954704284668</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1095306798815727</v>
+        <v>1.492445335316006e-06</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.9197759628295898</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.4964753985404968</v>
       </c>
       <c r="W66" t="n">
-        <v>0.2664300203323364</v>
+        <v>0.1791833639144897</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8775010108947754</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.4969244599342346</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1176666617393494</v>
+        <v>0.1448385119438171</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8817739486694336</v>
       </c>
       <c r="V68" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.8982385993003845</v>
       </c>
       <c r="W68" t="n">
-        <v>0.2507024109363556</v>
+        <v>0.0002710847184062004</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8660259246826172</v>
       </c>
       <c r="V69" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.8733201622962952</v>
       </c>
       <c r="W69" t="n">
-        <v>0.04521690681576729</v>
+        <v>5.32059020770248e-05</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.9152820110321045</v>
       </c>
       <c r="V70" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.8818752765655518</v>
       </c>
       <c r="W70" t="n">
-        <v>0.07464347034692764</v>
+        <v>0.001116009894758463</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8648760318756104</v>
       </c>
       <c r="V71" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.8803116083145142</v>
       </c>
       <c r="W71" t="n">
-        <v>0.104695163667202</v>
+        <v>0.0002382570237386972</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8626019954681396</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.4012212455272675</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1714979559183121</v>
+        <v>0.2128721922636032</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8610498905181885</v>
       </c>
       <c r="V73" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.8799445033073425</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1047693863511086</v>
+        <v>0.0003570063854567707</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.9095571041107178</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.8545277118682861</v>
       </c>
       <c r="W74" t="n">
-        <v>0.2562385201454163</v>
+        <v>0.003028234001249075</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8855249881744385</v>
       </c>
       <c r="V75" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.4936700463294983</v>
       </c>
       <c r="W75" t="n">
-        <v>0.004857591819018126</v>
+        <v>0.1535502970218658</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8755559921264648</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.8662742972373962</v>
       </c>
       <c r="W76" t="n">
-        <v>0.08237341046333313</v>
+        <v>8.614986290922388e-05</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8696420192718506</v>
       </c>
       <c r="V77" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.8661000728607178</v>
       </c>
       <c r="W77" t="n">
-        <v>0.00531900767236948</v>
+        <v>1.254538437933661e-05</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.9143002033233643</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.404058039188385</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1152715459465981</v>
+        <v>0.2603470683097839</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8683340549468994</v>
       </c>
       <c r="V79" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.5009800791740417</v>
       </c>
       <c r="W79" t="n">
-        <v>0.03452242165803909</v>
+        <v>0.1349489390850067</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8561320304870605</v>
       </c>
       <c r="V80" t="n">
-        <v>0.672245979309082</v>
+        <v>0.4115251302719116</v>
       </c>
       <c r="W80" t="n">
-        <v>0.03381408005952835</v>
+        <v>0.1976753026247025</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8550889492034912</v>
       </c>
       <c r="V81" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.3972919583320618</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1070316359400749</v>
+        <v>0.2095780819654465</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5951128005981445</v>
       </c>
       <c r="V82" t="n">
-        <v>0.944080114364624</v>
+        <v>0.4195700883865356</v>
       </c>
       <c r="W82" t="n">
-        <v>0.1217781826853752</v>
+        <v>0.0308152437210083</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5361039638519287</v>
       </c>
       <c r="V83" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.4085631370544434</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01409198902547359</v>
+        <v>0.01626666262745857</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5173749923706055</v>
       </c>
       <c r="V84" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.4103686511516571</v>
       </c>
       <c r="W84" t="n">
-        <v>0.08799149096012115</v>
+        <v>0.01145035680383444</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5548489093780518</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.4049937725067139</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0108778104186058</v>
+        <v>0.02245656214654446</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5071470737457275</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.3976132869720459</v>
       </c>
       <c r="W86" t="n">
-        <v>4.398935561766848e-05</v>
+        <v>0.01199765037745237</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5138027667999268</v>
       </c>
       <c r="V87" t="n">
-        <v>0.350454181432724</v>
+        <v>0.4989233613014221</v>
       </c>
       <c r="W87" t="n">
-        <v>0.02668276056647301</v>
+        <v>0.000221396709093824</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5160069465637207</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.3972680568695068</v>
       </c>
       <c r="W88" t="n">
-        <v>0.0006437519332394004</v>
+        <v>0.01409892365336418</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5132229328155518</v>
       </c>
       <c r="V89" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.4104014337062836</v>
       </c>
       <c r="W89" t="n">
-        <v>0.01948364451527596</v>
+        <v>0.01057226024568081</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5288739204406738</v>
       </c>
       <c r="V90" t="n">
-        <v>0.350784033536911</v>
+        <v>0.5044704675674438</v>
       </c>
       <c r="W90" t="n">
-        <v>0.0317160077393055</v>
+        <v>0.0005955285159870982</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5174040794372559</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.8594461679458618</v>
       </c>
       <c r="W91" t="n">
-        <v>0.0002960961137432605</v>
+        <v>0.1169927939772606</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5164320468902588</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.4988067150115967</v>
       </c>
       <c r="W92" t="n">
-        <v>0.003560249460861087</v>
+        <v>0.000310652336338535</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5690090656280518</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.4999364614486694</v>
       </c>
       <c r="W93" t="n">
-        <v>0.004779583774507046</v>
+        <v>0.004771024454385042</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5119409561157227</v>
       </c>
       <c r="V94" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.4012382924556732</v>
       </c>
       <c r="W94" t="n">
-        <v>0.0878915935754776</v>
+        <v>0.01225508004426956</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5144870281219482</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.8689728975296021</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01229057833552361</v>
+        <v>0.1256602257490158</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5167090892791748</v>
       </c>
       <c r="V96" t="n">
-        <v>0.514564037322998</v>
+        <v>0.8668930530548096</v>
       </c>
       <c r="W96" t="n">
-        <v>4.601247837854316e-06</v>
+        <v>0.1226288080215454</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5157101154327393</v>
       </c>
       <c r="V97" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.4958937764167786</v>
       </c>
       <c r="W97" t="n">
-        <v>0.01810216344892979</v>
+        <v>0.0003926873032469302</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5182831287384033</v>
       </c>
       <c r="V98" t="n">
-        <v>0.466268926858902</v>
+        <v>0.4095914363861084</v>
       </c>
       <c r="W98" t="n">
-        <v>0.002705477178096771</v>
+        <v>0.0118138836696744</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5152649879455566</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.8692721128463745</v>
       </c>
       <c r="W99" t="n">
-        <v>2.996080183947925e-08</v>
+        <v>0.1253210455179214</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5177290439605713</v>
       </c>
       <c r="V100" t="n">
-        <v>0.350296825170517</v>
+        <v>0.5012474656105042</v>
       </c>
       <c r="W100" t="n">
-        <v>0.028033547103405</v>
+        <v>0.0002716424351092428</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5128660202026367</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.5083808302879333</v>
       </c>
       <c r="W101" t="n">
-        <v>9.13136318558827e-07</v>
+        <v>2.011692777159624e-05</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.400123119354248</v>
       </c>
       <c r="V102" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.408780038356781</v>
       </c>
       <c r="W102" t="n">
-        <v>0.07979071140289307</v>
+        <v>7.494224701076746e-05</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.399299144744873</v>
       </c>
       <c r="V103" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.3994617164134979</v>
       </c>
       <c r="W103" t="n">
-        <v>1.65172550623538e-05</v>
+        <v>2.64295465512987e-08</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4505109786987305</v>
       </c>
       <c r="V104" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.4125715494155884</v>
       </c>
       <c r="W104" t="n">
-        <v>0.002630227478221059</v>
+        <v>0.001439400250092149</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4121918678283691</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.4038517773151398</v>
       </c>
       <c r="W105" t="n">
-        <v>0.02242156118154526</v>
+        <v>6.955710705369711e-05</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.388131856918335</v>
       </c>
       <c r="V106" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.4025740623474121</v>
       </c>
       <c r="W106" t="n">
-        <v>0.3091835975646973</v>
+        <v>0.0002085773012368008</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3867380619049072</v>
       </c>
       <c r="V107" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.4213756918907166</v>
       </c>
       <c r="W107" t="n">
-        <v>0.07066713273525238</v>
+        <v>0.001199765363708138</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3843681812286377</v>
       </c>
       <c r="V108" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.8766190409660339</v>
       </c>
       <c r="W108" t="n">
-        <v>0.02458531595766544</v>
+        <v>0.2423109114170074</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3842189311981201</v>
       </c>
       <c r="V109" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.4926744699478149</v>
       </c>
       <c r="W109" t="n">
-        <v>0.1794984340667725</v>
+        <v>0.01176260411739349</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.386483907699585</v>
       </c>
       <c r="V110" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.3993586003780365</v>
       </c>
       <c r="W110" t="n">
-        <v>0.1753886491060257</v>
+        <v>0.0001657577086007223</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3904011249542236</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.8675026893615723</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01885099895298481</v>
+        <v>0.2276259064674377</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4041681289672852</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.5084298253059387</v>
       </c>
       <c r="W112" t="n">
-        <v>0.01206378545612097</v>
+        <v>0.01087050139904022</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3896360397338867</v>
       </c>
       <c r="V113" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.4039734899997711</v>
       </c>
       <c r="W113" t="n">
-        <v>0.00151071057189256</v>
+        <v>0.0002055624790955335</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3841509819030762</v>
       </c>
       <c r="V114" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.405134379863739</v>
       </c>
       <c r="W114" t="n">
-        <v>0.159711629152298</v>
+        <v>0.0004403030034154654</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.387484073638916</v>
       </c>
       <c r="V115" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.5159795880317688</v>
       </c>
       <c r="W115" t="n">
-        <v>0.07140800356864929</v>
+        <v>0.01651109755039215</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3908090591430664</v>
       </c>
       <c r="V116" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.879970371723175</v>
       </c>
       <c r="W116" t="n">
-        <v>0.0004029084520880133</v>
+        <v>0.2392787933349609</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3927419185638428</v>
       </c>
       <c r="V117" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.499463677406311</v>
       </c>
       <c r="W117" t="n">
-        <v>0.06260977685451508</v>
+        <v>0.01138953398913145</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.407804012298584</v>
       </c>
       <c r="V118" t="n">
-        <v>0.375304102897644</v>
+        <v>0.399324893951416</v>
       </c>
       <c r="W118" t="n">
-        <v>0.001056244131177664</v>
+        <v>7.189544703578576e-05</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3922319412231445</v>
       </c>
       <c r="V119" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.403226226568222</v>
       </c>
       <c r="W119" t="n">
-        <v>0.01256162766367197</v>
+        <v>0.0001208743124152534</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3988139629364014</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.3993162214756012</v>
       </c>
       <c r="W120" t="n">
-        <v>0.01338993944227695</v>
+        <v>2.522636464163952e-07</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.384242057800293</v>
       </c>
       <c r="V121" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.493878185749054</v>
       </c>
       <c r="W121" t="n">
-        <v>0.006721495650708675</v>
+        <v>0.01202008035033941</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.9091389179229736</v>
       </c>
       <c r="V122" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.5159176588058472</v>
       </c>
       <c r="W122" t="n">
-        <v>0.07186438888311386</v>
+        <v>0.154622957110405</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9102339744567871</v>
       </c>
       <c r="V123" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.8677055239677429</v>
       </c>
       <c r="W123" t="n">
-        <v>0.00965438038110733</v>
+        <v>0.001808669068850577</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8868200778961182</v>
       </c>
       <c r="V124" t="n">
-        <v>0.656647801399231</v>
+        <v>0.5004129409790039</v>
       </c>
       <c r="W124" t="n">
-        <v>0.05297927558422089</v>
+        <v>0.1493104696273804</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8696630001068115</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.4195369482040405</v>
       </c>
       <c r="W125" t="n">
-        <v>0.2171963453292847</v>
+        <v>0.2026134580373764</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.9365401268005371</v>
       </c>
       <c r="V126" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.3993169367313385</v>
       </c>
       <c r="W126" t="n">
-        <v>0.02359016984701157</v>
+        <v>0.2886087894439697</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8925900459289551</v>
       </c>
       <c r="V127" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.8675628304481506</v>
       </c>
       <c r="W127" t="n">
-        <v>0.002881868975237012</v>
+        <v>0.0006263615214265883</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8618149757385254</v>
       </c>
       <c r="V128" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.5000423192977905</v>
       </c>
       <c r="W128" t="n">
-        <v>0.2611666023731232</v>
+        <v>0.1308794617652893</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8639340400695801</v>
       </c>
       <c r="V129" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.5159450173377991</v>
       </c>
       <c r="W129" t="n">
-        <v>0.0445517785847187</v>
+        <v>0.1210963577032089</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.944782018661499</v>
       </c>
       <c r="V130" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.8730575442314148</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1627281457185745</v>
+        <v>0.005144400056451559</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8659770488739014</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.8643492460250854</v>
       </c>
       <c r="W131" t="n">
-        <v>0.08357015252113342</v>
+        <v>2.649742100402364e-06</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8896629810333252</v>
       </c>
       <c r="V132" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.5151715278625488</v>
       </c>
       <c r="W132" t="n">
-        <v>0.2688826322555542</v>
+        <v>0.1402438431978226</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9097139835357666</v>
       </c>
       <c r="V133" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.499047577381134</v>
       </c>
       <c r="W133" t="n">
-        <v>0.2733024954795837</v>
+        <v>0.168646901845932</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.912787914276123</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.4039381146430969</v>
       </c>
       <c r="W134" t="n">
-        <v>0.2592182159423828</v>
+        <v>0.258928120136261</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8688828945159912</v>
       </c>
       <c r="V135" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.8934293985366821</v>
       </c>
       <c r="W135" t="n">
-        <v>0.03872587531805038</v>
+        <v>0.0006025308393873274</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8623809814453125</v>
       </c>
       <c r="V136" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.87180095911026</v>
       </c>
       <c r="W136" t="n">
-        <v>0.02717241644859314</v>
+        <v>8.873597835190594e-05</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8649418354034424</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.8853268623352051</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2127684205770493</v>
+        <v>0.0004155493224970996</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.9149141311645508</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.411522388458252</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1686635911464691</v>
+        <v>0.2534032464027405</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8701250553131104</v>
       </c>
       <c r="V139" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.8677879571914673</v>
       </c>
       <c r="W139" t="n">
-        <v>0.2697134017944336</v>
+        <v>5.462027729663532e-06</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8615531921386719</v>
       </c>
       <c r="V140" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.4197155833244324</v>
       </c>
       <c r="W140" t="n">
-        <v>0.2100084871053696</v>
+        <v>0.1952204704284668</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.862091064453125</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.4967576265335083</v>
       </c>
       <c r="W141" t="n">
-        <v>0.121368020772934</v>
+        <v>0.1334685236215591</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5714890956878662</v>
       </c>
       <c r="V142" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.4272153377532959</v>
       </c>
       <c r="W142" t="n">
-        <v>0.0008264700882136822</v>
+        <v>0.0208149179816246</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5153710842132568</v>
       </c>
       <c r="V143" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.4037383794784546</v>
       </c>
       <c r="W143" t="n">
-        <v>0.01249389257282019</v>
+        <v>0.01246186066418886</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5186259746551514</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.4092285335063934</v>
       </c>
       <c r="W144" t="n">
-        <v>0.000217393841012381</v>
+        <v>0.01196780055761337</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5157039165496826</v>
       </c>
       <c r="V145" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.869340181350708</v>
       </c>
       <c r="W145" t="n">
-        <v>0.1853854954242706</v>
+        <v>0.1250586062669754</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5191919803619385</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.8911125063896179</v>
       </c>
       <c r="W146" t="n">
-        <v>0.01336121466010809</v>
+        <v>0.1383248716592789</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.53696608543396</v>
       </c>
       <c r="V147" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.3993067443370819</v>
       </c>
       <c r="W147" t="n">
-        <v>0.01435363292694092</v>
+        <v>0.01895009353756905</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.514862060546875</v>
       </c>
       <c r="V148" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.5166797637939453</v>
       </c>
       <c r="W148" t="n">
-        <v>0.02188861928880215</v>
+        <v>3.304045094409958e-06</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5167319774627686</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.8887490034103394</v>
       </c>
       <c r="W149" t="n">
-        <v>1.505434852333565e-06</v>
+        <v>0.1383966654539108</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5160179138183594</v>
       </c>
       <c r="V150" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.486702024936676</v>
       </c>
       <c r="W150" t="n">
-        <v>0.1865154951810837</v>
+        <v>0.0008594213286414742</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5154118537902832</v>
       </c>
       <c r="V151" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.4996072351932526</v>
       </c>
       <c r="W151" t="n">
-        <v>0.01633445173501968</v>
+        <v>0.000249785982305184</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5124261379241943</v>
       </c>
       <c r="V152" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.4988264739513397</v>
       </c>
       <c r="W152" t="n">
-        <v>0.01725938729941845</v>
+        <v>0.0001849508553277701</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5701191425323486</v>
       </c>
       <c r="V153" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.8954713344573975</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01039342395961285</v>
+        <v>0.1058540493249893</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5161011219024658</v>
       </c>
       <c r="V154" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.8613312840461731</v>
       </c>
       <c r="W154" t="n">
-        <v>0.0004381868347991258</v>
+        <v>0.1191838681697845</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5195460319519043</v>
       </c>
       <c r="V155" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.3972719311714172</v>
       </c>
       <c r="W155" t="n">
-        <v>0.02078305184841156</v>
+        <v>0.01495095528662205</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5168900489807129</v>
       </c>
       <c r="V156" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.8807806372642517</v>
       </c>
       <c r="W156" t="n">
-        <v>0.0004198274982627481</v>
+        <v>0.1324163675308228</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5153939723968506</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.8615475296974182</v>
       </c>
       <c r="W157" t="n">
-        <v>0.0001215797965414822</v>
+        <v>0.1198222860693932</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5407888889312744</v>
       </c>
       <c r="V158" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.5405349731445312</v>
       </c>
       <c r="W158" t="n">
-        <v>0.02544780075550079</v>
+        <v>6.447322675739997e-08</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5208480358123779</v>
       </c>
       <c r="V159" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.8953338861465454</v>
       </c>
       <c r="W159" t="n">
-        <v>0.1854220479726791</v>
+        <v>0.1402396559715271</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5156939029693604</v>
       </c>
       <c r="V160" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.4976367354393005</v>
       </c>
       <c r="W160" t="n">
-        <v>0.01644661836326122</v>
+        <v>0.0003260613011661917</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5186309814453125</v>
       </c>
       <c r="V161" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.4996917545795441</v>
       </c>
       <c r="W161" t="n">
-        <v>0.0002119653654517606</v>
+        <v>0.0003586943203117698</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3936100006103516</v>
       </c>
       <c r="V162" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.3972733616828918</v>
       </c>
       <c r="W162" t="n">
-        <v>0.03800633177161217</v>
+        <v>1.342021460004617e-05</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3894939422607422</v>
       </c>
       <c r="V163" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.8664419651031494</v>
       </c>
       <c r="W163" t="n">
-        <v>0.1751270443201065</v>
+        <v>0.227479413151741</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.4398760795593262</v>
       </c>
       <c r="V164" t="n">
-        <v>0.654965877532959</v>
+        <v>0.8932271003723145</v>
       </c>
       <c r="W164" t="n">
-        <v>0.04626362025737762</v>
+        <v>0.2055271416902542</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3914239406585693</v>
       </c>
       <c r="V165" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.8800303936004639</v>
       </c>
       <c r="W165" t="n">
-        <v>0.001652147155255079</v>
+        <v>0.2387362718582153</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3888819217681885</v>
       </c>
       <c r="V166" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.8738856315612793</v>
       </c>
       <c r="W166" t="n">
-        <v>0.0002115906536346301</v>
+        <v>0.2352285981178284</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3887720108032227</v>
       </c>
       <c r="V167" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.8679884076118469</v>
       </c>
       <c r="W167" t="n">
-        <v>0.0002200285962317139</v>
+        <v>0.2296483516693115</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3896520137786865</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.5171912908554077</v>
       </c>
       <c r="W168" t="n">
-        <v>0.0001942107919603586</v>
+        <v>0.01626626774668694</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3978087902069092</v>
       </c>
       <c r="V169" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.4119156002998352</v>
       </c>
       <c r="W169" t="n">
-        <v>0.0004682110447902232</v>
+        <v>0.0001990020973607898</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.391603946685791</v>
       </c>
       <c r="V170" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.4041780829429626</v>
       </c>
       <c r="W170" t="n">
-        <v>0.02119471505284309</v>
+        <v>0.0001581089018145576</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3898417949676514</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.8688539266586304</v>
       </c>
       <c r="W171" t="n">
-        <v>0.01226146146655083</v>
+        <v>0.2294526249170303</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4034278392791748</v>
       </c>
       <c r="V172" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.3993264734745026</v>
       </c>
       <c r="W172" t="n">
-        <v>0.01712004281580448</v>
+        <v>1.68212009157287e-05</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3966429233551025</v>
       </c>
       <c r="V173" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.508430004119873</v>
       </c>
       <c r="W173" t="n">
-        <v>0.09091480821371078</v>
+        <v>0.01249635126441717</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4077138900756836</v>
       </c>
       <c r="V174" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.8742864727973938</v>
       </c>
       <c r="W174" t="n">
-        <v>0.1594633162021637</v>
+        <v>0.2176899760961533</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.4001798629760742</v>
       </c>
       <c r="V175" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.397236704826355</v>
       </c>
       <c r="W175" t="n">
-        <v>0.006064161192625761</v>
+        <v>8.662180334795266e-06</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3920331001281738</v>
       </c>
       <c r="V176" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.403809130191803</v>
       </c>
       <c r="W176" t="n">
-        <v>0.0001524582912679762</v>
+        <v>0.0001386748772347346</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4064059257507324</v>
       </c>
       <c r="V177" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.8855493664741516</v>
       </c>
       <c r="W177" t="n">
-        <v>0.009378613904118538</v>
+        <v>0.22957843542099</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3917720317840576</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.5159329175949097</v>
       </c>
       <c r="W178" t="n">
-        <v>0.01485464628785849</v>
+        <v>0.01541592553257942</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.391556978225708</v>
       </c>
       <c r="V179" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.4991441369056702</v>
       </c>
       <c r="W179" t="n">
-        <v>0.3034739792346954</v>
+        <v>0.0115749966353178</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3911919593811035</v>
       </c>
       <c r="V180" t="n">
-        <v>0.782903790473938</v>
+        <v>0.4204142391681671</v>
       </c>
       <c r="W180" t="n">
-        <v>0.1534381657838821</v>
+        <v>0.0008539416594430804</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4147608280181885</v>
       </c>
       <c r="V181" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.3972645401954651</v>
       </c>
       <c r="W181" t="n">
-        <v>0.0001233150833286345</v>
+        <v>0.0003061200841329992</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.9369480609893799</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.411906361579895</v>
       </c>
       <c r="W182" t="n">
-        <v>0.2844621539115906</v>
+        <v>0.2756687998771667</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8889210224151611</v>
       </c>
       <c r="V183" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.8733157515525818</v>
       </c>
       <c r="W183" t="n">
-        <v>0.006248064339160919</v>
+        <v>0.0002435244823573157</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8724081516265869</v>
       </c>
       <c r="V184" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.4190908968448639</v>
       </c>
       <c r="W184" t="n">
-        <v>0.2473732978105545</v>
+        <v>0.205496534705162</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8758549690246582</v>
       </c>
       <c r="V185" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.8669704794883728</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1179242134094238</v>
+        <v>7.893415750004351e-05</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.9212911128997803</v>
       </c>
       <c r="V186" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.3972570896148682</v>
       </c>
       <c r="W186" t="n">
-        <v>0.1733487248420715</v>
+        <v>0.2746116518974304</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.889056921005249</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.5158343315124512</v>
       </c>
       <c r="W187" t="n">
-        <v>0.235683262348175</v>
+        <v>0.1392951011657715</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8663330078125</v>
       </c>
       <c r="V188" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.5405787229537964</v>
       </c>
       <c r="W188" t="n">
-        <v>0.2140532433986664</v>
+        <v>0.1061158552765846</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8849420547485352</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.4025119543075562</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1180373132228851</v>
+        <v>0.2327388077974319</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.9344451427459717</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.5159797668457031</v>
       </c>
       <c r="W190" t="n">
-        <v>0.157873347401619</v>
+        <v>0.1751132756471634</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8654191493988037</v>
       </c>
       <c r="V191" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.8758455514907837</v>
       </c>
       <c r="W191" t="n">
-        <v>0.04428385570645332</v>
+        <v>0.0001087098571588285</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8727819919586182</v>
       </c>
       <c r="V192" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.8673123717308044</v>
       </c>
       <c r="W192" t="n">
-        <v>0.2708064019680023</v>
+        <v>2.991674591612536e-05</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8820431232452393</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.8613254427909851</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1436133086681366</v>
+        <v>0.0004292222729418427</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.9176759719848633</v>
       </c>
       <c r="V194" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.8682375550270081</v>
       </c>
       <c r="W194" t="n">
-        <v>0.01817086711525917</v>
+        <v>0.00244415714405477</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8743431568145752</v>
       </c>
       <c r="V195" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.8815386891365051</v>
       </c>
       <c r="W195" t="n">
-        <v>0.07083322107791901</v>
+        <v>5.17756852786988e-05</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8636560440063477</v>
       </c>
       <c r="V196" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.4973025918006897</v>
       </c>
       <c r="W196" t="n">
-        <v>0.0485057607293129</v>
+        <v>0.134214848279953</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8765809535980225</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.5001829862594604</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1170599162578583</v>
+        <v>0.1416754275560379</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.9203028678894043</v>
       </c>
       <c r="V198" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.4914833903312683</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1959670931100845</v>
+        <v>0.1838861405849457</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8729829788208008</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.4190515279769897</v>
       </c>
       <c r="W199" t="n">
-        <v>0.136209711432457</v>
+        <v>0.206053763628006</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8634300231933594</v>
       </c>
       <c r="V200" t="n">
-        <v>0.672019362449646</v>
+        <v>0.8733394742012024</v>
       </c>
       <c r="W200" t="n">
-        <v>0.0366380400955677</v>
+        <v>9.819721890380606e-05</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8862659931182861</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.4204106330871582</v>
       </c>
       <c r="W201" t="n">
-        <v>0.09569573402404785</v>
+        <v>0.2170212119817734</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5704789161682129</v>
       </c>
       <c r="V202" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.4050217270851135</v>
       </c>
       <c r="W202" t="n">
-        <v>0.01607919298112392</v>
+        <v>0.02737608179450035</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5153689384460449</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.4012582898139954</v>
       </c>
       <c r="W203" t="n">
-        <v>0.0001831500558182597</v>
+        <v>0.01302124001085758</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5264430046081543</v>
       </c>
       <c r="V204" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.5085501074790955</v>
       </c>
       <c r="W204" t="n">
-        <v>0.0001866790262283757</v>
+        <v>0.0003201557556167245</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.518488883972168</v>
       </c>
       <c r="V205" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.4039124548435211</v>
       </c>
       <c r="W205" t="n">
-        <v>0.1810282617807388</v>
+        <v>0.01312775816768408</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5168240070343018</v>
       </c>
       <c r="V206" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.3972733318805695</v>
       </c>
       <c r="W206" t="n">
-        <v>0.01849379763007164</v>
+        <v>0.01429236400872469</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5265250205993652</v>
       </c>
       <c r="V207" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.3975955545902252</v>
       </c>
       <c r="W207" t="n">
-        <v>0.01317714620381594</v>
+        <v>0.01662280783057213</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.6941189765930176</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.5156843662261963</v>
       </c>
       <c r="W208" t="n">
-        <v>0.03661399334669113</v>
+        <v>0.03183890879154205</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5181560516357422</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.4991798400878906</v>
       </c>
       <c r="W209" t="n">
-        <v>0.001625582925044</v>
+        <v>0.0003600966010708362</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5236568450927734</v>
       </c>
       <c r="V210" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.4984278678894043</v>
       </c>
       <c r="W210" t="n">
-        <v>0.06762497872114182</v>
+        <v>0.0006365012959577143</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5163500308990479</v>
       </c>
       <c r="V211" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.5034363269805908</v>
       </c>
       <c r="W211" t="n">
-        <v>0.08558164536952972</v>
+        <v>0.0001667637552600354</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5207400321960449</v>
       </c>
       <c r="V212" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.4963344037532806</v>
       </c>
       <c r="W212" t="n">
-        <v>0.001812458271160722</v>
+        <v>0.0005956346867606044</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5241680145263672</v>
       </c>
       <c r="V213" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.8839971423149109</v>
       </c>
       <c r="W213" t="n">
-        <v>6.462356395786628e-05</v>
+        <v>0.1294769942760468</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5228149890899658</v>
       </c>
       <c r="V214" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.4038810431957245</v>
       </c>
       <c r="W214" t="n">
-        <v>0.01417194399982691</v>
+        <v>0.01414528302848339</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5222890377044678</v>
       </c>
       <c r="V215" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.4927335977554321</v>
       </c>
       <c r="W215" t="n">
-        <v>0.02941388450562954</v>
+        <v>0.0008735240553505719</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5167880058288574</v>
       </c>
       <c r="V216" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.4976596832275391</v>
       </c>
       <c r="W216" t="n">
-        <v>0.1811635196208954</v>
+        <v>0.0003658927162177861</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5181658267974854</v>
       </c>
       <c r="V217" t="n">
-        <v>0.514474630355835</v>
+        <v>0.8734412789344788</v>
       </c>
       <c r="W217" t="n">
-        <v>1.362493094347883e-05</v>
+        <v>0.1262206435203552</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.560042142868042</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.5159489512443542</v>
       </c>
       <c r="W218" t="n">
-        <v>0.02295070141553879</v>
+        <v>0.001944209565408528</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.52394700050354</v>
       </c>
       <c r="V219" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.3978055715560913</v>
       </c>
       <c r="W219" t="n">
-        <v>0.06737238168716431</v>
+        <v>0.0159116592258215</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5214588642120361</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.4907562136650085</v>
       </c>
       <c r="W220" t="n">
-        <v>0.013877815566957</v>
+        <v>0.0009426527540199459</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5173630714416504</v>
       </c>
       <c r="V221" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.406669408082962</v>
       </c>
       <c r="W221" t="n">
-        <v>0.0002009609743254259</v>
+        <v>0.01225308701395988</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3870358467102051</v>
       </c>
       <c r="V222" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.4039181470870972</v>
       </c>
       <c r="W222" t="n">
-        <v>3.766110603464767e-05</v>
+        <v>0.0002850120654329658</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3887770175933838</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.8687936067581177</v>
       </c>
       <c r="W223" t="n">
-        <v>0.0002193898253608495</v>
+        <v>0.2304159253835678</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3911609649658203</v>
       </c>
       <c r="V224" t="n">
-        <v>0.654166579246521</v>
+        <v>0.8985545039176941</v>
       </c>
       <c r="W224" t="n">
-        <v>0.06917195022106171</v>
+        <v>0.2574481964111328</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3914890289306641</v>
       </c>
       <c r="V225" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.5174898505210876</v>
       </c>
       <c r="W225" t="n">
-        <v>0.078834168612957</v>
+        <v>0.01587620750069618</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3928358554840088</v>
       </c>
       <c r="V226" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.4967337846755981</v>
       </c>
       <c r="W226" t="n">
-        <v>0.312196284532547</v>
+        <v>0.01079477928578854</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3963439464569092</v>
       </c>
       <c r="V227" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.4011836051940918</v>
       </c>
       <c r="W227" t="n">
-        <v>0.1502083986997604</v>
+        <v>2.342229709029198e-05</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3940498828887939</v>
       </c>
       <c r="V228" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.3972436785697937</v>
       </c>
       <c r="W228" t="n">
-        <v>0.1510594338178635</v>
+        <v>1.020033050735947e-05</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3922841548919678</v>
       </c>
       <c r="V229" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.5026344060897827</v>
       </c>
       <c r="W229" t="n">
-        <v>0.0002803192182909697</v>
+        <v>0.0121771777048707</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.4481370449066162</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.8753176331520081</v>
       </c>
       <c r="W230" t="n">
-        <v>0.004325602669268847</v>
+        <v>0.1824832558631897</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.4269349575042725</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.5174294710159302</v>
       </c>
       <c r="W231" t="n">
-        <v>0.01151745673269033</v>
+        <v>0.008189257234334946</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4172520637512207</v>
       </c>
       <c r="V232" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.419818103313446</v>
       </c>
       <c r="W232" t="n">
-        <v>0.001720679807476699</v>
+        <v>6.584558832400944e-06</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3953630924224854</v>
       </c>
       <c r="V233" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.8673902750015259</v>
       </c>
       <c r="W233" t="n">
-        <v>0.001986944349482656</v>
+        <v>0.2228096574544907</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.400148868560791</v>
       </c>
       <c r="V234" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.397624671459198</v>
       </c>
       <c r="W234" t="n">
-        <v>0.01326250936836004</v>
+        <v>6.371571089403005e-06</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3956191539764404</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.8763089776039124</v>
       </c>
       <c r="W235" t="n">
-        <v>0.004984326660633087</v>
+        <v>0.2310627102851868</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4491050243377686</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.867168664932251</v>
       </c>
       <c r="W236" t="n">
-        <v>0.05449102446436882</v>
+        <v>0.1747772097587585</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4037191867828369</v>
       </c>
       <c r="V237" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.8995123505592346</v>
       </c>
       <c r="W237" t="n">
-        <v>0.01212251558899879</v>
+        <v>0.245810866355896</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3884410858154297</v>
       </c>
       <c r="V238" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.8665129542350769</v>
       </c>
       <c r="W238" t="n">
-        <v>0.1780374646186829</v>
+        <v>0.2285527139902115</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3857548236846924</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.8615161180496216</v>
       </c>
       <c r="W239" t="n">
-        <v>0.004213334526866674</v>
+        <v>0.226348802447319</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3875968456268311</v>
       </c>
       <c r="V240" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.8684682250022888</v>
       </c>
       <c r="W240" t="n">
-        <v>0.1567274779081345</v>
+        <v>0.2312372773885727</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3886570930480957</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.869220495223999</v>
       </c>
       <c r="W241" t="n">
-        <v>0.00021205389930401</v>
+        <v>0.2309411764144897</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9496819972991943</v>
       </c>
       <c r="V242" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.4107028245925903</v>
       </c>
       <c r="W242" t="n">
-        <v>0.08577998727560043</v>
+        <v>0.2904985547065735</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8892998695373535</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.8585051894187927</v>
       </c>
       <c r="W243" t="n">
-        <v>0.2358250170946121</v>
+        <v>0.0009483123430982232</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8852808475494385</v>
       </c>
       <c r="V244" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.8847388625144958</v>
       </c>
       <c r="W244" t="n">
-        <v>0.007239625323563814</v>
+        <v>2.937477745490469e-07</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8852231502532959</v>
       </c>
       <c r="V245" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.3972615599632263</v>
       </c>
       <c r="W245" t="n">
-        <v>0.003899264382198453</v>
+        <v>0.2381065189838409</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9177401065826416</v>
       </c>
       <c r="V246" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.3972664177417755</v>
       </c>
       <c r="W246" t="n">
-        <v>0.175131231546402</v>
+        <v>0.2708928883075714</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.871103048324585</v>
       </c>
       <c r="V247" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.40500807762146</v>
       </c>
       <c r="W247" t="n">
-        <v>0.07971879839897156</v>
+        <v>0.2172445207834244</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8658900260925293</v>
       </c>
       <c r="V248" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.8930303454399109</v>
       </c>
       <c r="W248" t="n">
-        <v>0.03363740816712379</v>
+        <v>0.0007365969358943403</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8719799518585205</v>
       </c>
       <c r="V249" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.5157783031463623</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1645817458629608</v>
+        <v>0.1268796175718307</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9161498546600342</v>
       </c>
       <c r="V250" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.5073975324630737</v>
       </c>
       <c r="W250" t="n">
-        <v>0.3196435868740082</v>
+        <v>0.1670784652233124</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8787980079650879</v>
       </c>
       <c r="V251" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.5253642797470093</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1138676926493645</v>
+        <v>0.1249153986573219</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8635070323944092</v>
       </c>
       <c r="V252" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.8761283755302429</v>
       </c>
       <c r="W252" t="n">
-        <v>0.04385337606072426</v>
+        <v>0.0001592983026057482</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.879525899887085</v>
       </c>
       <c r="V253" t="n">
-        <v>0.381181538105011</v>
+        <v>0.8617261052131653</v>
       </c>
       <c r="W253" t="n">
-        <v>0.2483471035957336</v>
+        <v>0.0003168326802551746</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9203910827636719</v>
       </c>
       <c r="V254" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.4203373193740845</v>
       </c>
       <c r="W254" t="n">
-        <v>0.2673097848892212</v>
+        <v>0.2500537633895874</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8791561126708984</v>
       </c>
       <c r="V255" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.8872427344322205</v>
       </c>
       <c r="W255" t="n">
-        <v>0.2791733741760254</v>
+        <v>6.539345486089587e-05</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8619508743286133</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.4102565944194794</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1692369133234024</v>
+        <v>0.2040277272462845</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8709101676940918</v>
       </c>
       <c r="V257" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.5158469676971436</v>
       </c>
       <c r="W257" t="n">
-        <v>0.127025380730629</v>
+        <v>0.1260698735713959</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9234578609466553</v>
       </c>
       <c r="V258" t="n">
-        <v>0.514431357383728</v>
+        <v>0.4995899498462677</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1673026829957962</v>
+        <v>0.1796640008687973</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.873528003692627</v>
       </c>
       <c r="V259" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.4206160306930542</v>
       </c>
       <c r="W259" t="n">
-        <v>0.07038581371307373</v>
+        <v>0.2051292508840561</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8543469905853271</v>
       </c>
       <c r="V260" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.4188933372497559</v>
       </c>
       <c r="W260" t="n">
-        <v>0.08618169277906418</v>
+        <v>0.1896198838949203</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8821201324462891</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.4980875253677368</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1031237319111824</v>
+        <v>0.1474810391664505</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5461618900299072</v>
       </c>
       <c r="V262" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.5180516242980957</v>
       </c>
       <c r="W262" t="n">
-        <v>2.074682015518192e-05</v>
+        <v>0.0007901870412752032</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.539139986038208</v>
       </c>
       <c r="V263" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.8604103326797485</v>
       </c>
       <c r="W263" t="n">
-        <v>0.001114489161409438</v>
+        <v>0.1032146364450455</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5213491916656494</v>
       </c>
       <c r="V264" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.3972864747047424</v>
       </c>
       <c r="W264" t="n">
-        <v>0.02853332459926605</v>
+        <v>0.01539155747741461</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.525521993637085</v>
       </c>
       <c r="V265" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.8697077631950378</v>
       </c>
       <c r="W265" t="n">
-        <v>0.03067775443196297</v>
+        <v>0.1184638440608978</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5207290649414062</v>
       </c>
       <c r="V266" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.3972804546356201</v>
       </c>
       <c r="W266" t="n">
-        <v>0.0688893124461174</v>
+        <v>0.01523955911397934</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5833079814910889</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.3993053436279297</v>
       </c>
       <c r="W267" t="n">
-        <v>0.003069082275032997</v>
+        <v>0.03385696932673454</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5208408832550049</v>
       </c>
       <c r="V268" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.9003763794898987</v>
       </c>
       <c r="W268" t="n">
-        <v>0.0682462751865387</v>
+        <v>0.1440471857786179</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5240540504455566</v>
       </c>
       <c r="V269" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.5158452987670898</v>
       </c>
       <c r="W269" t="n">
-        <v>0.0004905714304186404</v>
+        <v>6.738360389135778e-05</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5189509391784668</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.5282175540924072</v>
       </c>
       <c r="W270" t="n">
-        <v>0.001816886360757053</v>
+        <v>8.587015327066183e-05</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5152859687805176</v>
       </c>
       <c r="V271" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.3976307809352875</v>
       </c>
       <c r="W271" t="n">
-        <v>0.004171626642346382</v>
+        <v>0.01384274289011955</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5261139869689941</v>
       </c>
       <c r="V272" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.4964649975299835</v>
       </c>
       <c r="W272" t="n">
-        <v>0.0001431392738595605</v>
+        <v>0.0008790625724941492</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5276229381561279</v>
       </c>
       <c r="V273" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.8707365393638611</v>
       </c>
       <c r="W273" t="n">
-        <v>0.07825798541307449</v>
+        <v>0.1177269443869591</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5326800346374512</v>
       </c>
       <c r="V274" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.8632422089576721</v>
       </c>
       <c r="W274" t="n">
-        <v>0.02474381402134895</v>
+        <v>0.1092713475227356</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5212090015411377</v>
       </c>
       <c r="V275" t="n">
-        <v>0.534324586391449</v>
+        <v>0.5159680247306824</v>
       </c>
       <c r="W275" t="n">
-        <v>0.0001720185682643205</v>
+        <v>2.746783866314217e-05</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5191688537597656</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.497164249420166</v>
       </c>
       <c r="W276" t="n">
-        <v>2.689790926524438e-05</v>
+        <v>0.0004842026100959629</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5236070156097412</v>
       </c>
       <c r="V277" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.8744259476661682</v>
       </c>
       <c r="W277" t="n">
-        <v>0.01775934360921383</v>
+        <v>0.1230739206075668</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5721619129180908</v>
       </c>
       <c r="V278" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.3972866535186768</v>
       </c>
       <c r="W278" t="n">
-        <v>0.04456924274563789</v>
+        <v>0.03058135695755482</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5233790874481201</v>
       </c>
       <c r="V279" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.4987214207649231</v>
       </c>
       <c r="W279" t="n">
-        <v>0.01434799935668707</v>
+        <v>0.0006080005550757051</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5223000049591064</v>
       </c>
       <c r="V280" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.39777672290802</v>
       </c>
       <c r="W280" t="n">
-        <v>0.03056001290678978</v>
+        <v>0.01550604775547981</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5223350524902344</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.397276908159256</v>
       </c>
       <c r="W281" t="n">
-        <v>0.01414872892200947</v>
+        <v>0.0156395398080349</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4067718982696533</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.4989935457706451</v>
       </c>
       <c r="W282" t="n">
-        <v>0.0565926767885685</v>
+        <v>0.008504832163453102</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3983428478240967</v>
       </c>
       <c r="V283" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.5180413722991943</v>
       </c>
       <c r="W283" t="n">
-        <v>0.1661055386066437</v>
+        <v>0.01432773657143116</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3978960514068604</v>
       </c>
       <c r="V284" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.515989363193512</v>
       </c>
       <c r="W284" t="n">
-        <v>0.02647064998745918</v>
+        <v>0.01394603028893471</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3973360061645508</v>
       </c>
       <c r="V285" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.4106230735778809</v>
       </c>
       <c r="W285" t="n">
-        <v>0.1486139893531799</v>
+        <v>0.0001765461638569832</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3972830772399902</v>
       </c>
       <c r="V286" t="n">
-        <v>0.504324197769165</v>
+        <v>0.5084880590438843</v>
       </c>
       <c r="W286" t="n">
-        <v>0.01145780179649591</v>
+        <v>0.01236654818058014</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3988401889801025</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.4037627577781677</v>
       </c>
       <c r="W287" t="n">
-        <v>0.02031650766730309</v>
+        <v>2.423168371024076e-05</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.396812915802002</v>
       </c>
       <c r="V288" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.8989520072937012</v>
       </c>
       <c r="W288" t="n">
-        <v>0.01137021649628878</v>
+        <v>0.2521436810493469</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.3973720073699951</v>
       </c>
       <c r="V289" t="n">
-        <v>0.65655517578125</v>
+        <v>0.4995189309120178</v>
       </c>
       <c r="W289" t="n">
-        <v>0.06717591732740402</v>
+        <v>0.01043399423360825</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.4222288131713867</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.5012590885162354</v>
       </c>
       <c r="W290" t="n">
-        <v>0.006496671121567488</v>
+        <v>0.00624578446149826</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3997540473937988</v>
       </c>
       <c r="V291" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.8741143345832825</v>
       </c>
       <c r="W291" t="n">
-        <v>0.0008443124825134873</v>
+        <v>0.2250176817178726</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.3999660015106201</v>
       </c>
       <c r="V292" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.8704447150230408</v>
       </c>
       <c r="W292" t="n">
-        <v>0.06496676802635193</v>
+        <v>0.221350222826004</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4054460525512695</v>
       </c>
       <c r="V293" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.4030034840106964</v>
       </c>
       <c r="W293" t="n">
-        <v>0.1585431396961212</v>
+        <v>5.966141088720178e-06</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3965158462524414</v>
       </c>
       <c r="V294" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.8996339440345764</v>
       </c>
       <c r="W294" t="n">
-        <v>0.1798288971185684</v>
+        <v>0.2531278133392334</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3961338996887207</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.5003974437713623</v>
       </c>
       <c r="W295" t="n">
-        <v>0.02116846479475498</v>
+        <v>0.01087088696658611</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4418020248413086</v>
       </c>
       <c r="V296" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.8759875893592834</v>
       </c>
       <c r="W296" t="n">
-        <v>7.622581324540079e-05</v>
+        <v>0.1885171085596085</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3980121612548828</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.8715188503265381</v>
       </c>
       <c r="W297" t="n">
-        <v>0.006365953478962183</v>
+        <v>0.2242085784673691</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3987460136413574</v>
       </c>
       <c r="V298" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.8626365065574646</v>
       </c>
       <c r="W298" t="n">
-        <v>0.08511907607316971</v>
+        <v>0.2151943892240524</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4031040668487549</v>
       </c>
       <c r="V299" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.8695592880249023</v>
       </c>
       <c r="W299" t="n">
-        <v>0.002737417118623853</v>
+        <v>0.2175804674625397</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3972420692443848</v>
       </c>
       <c r="V300" t="n">
-        <v>0.54131019115448</v>
+        <v>0.4988496899604797</v>
       </c>
       <c r="W300" t="n">
-        <v>0.02075562439858913</v>
+        <v>0.01032410841435194</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3931760787963867</v>
       </c>
       <c r="V301" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.5398287773132324</v>
       </c>
       <c r="W301" t="n">
-        <v>0.0003192498988937587</v>
+        <v>0.02150701358914375</v>
       </c>
     </row>
     <row r="302" spans="1:23">
